--- a/testing/hyperparams.xlsx
+++ b/testing/hyperparams.xlsx
@@ -294,7 +294,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
     </sheetView>
   </sheetViews>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
